--- a/base.xlsx
+++ b/base.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
